--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\OneDrive\workspace_202209\hogandiff3\xyz.hotchpotch.hogandiff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202212/hogandiff3/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F29E0D-1B82-4DAD-8C5B-ED5CA85B93B0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -261,9 +253,6 @@
     <t>gui.MainController.020</t>
   </si>
   <si>
-    <t>比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ左下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</t>
-  </si>
-  <si>
     <t>gui.MainController.030</t>
   </si>
   <si>
@@ -607,9 +596,6 @@
   </si>
   <si>
     <t>Please specify different books/sheets.</t>
-  </si>
-  <si>
-    <t>Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory by YOURSELF from the button in the lower left corner of the application.</t>
   </si>
   <si>
     <t>Unexpected exception occurred.</t>
@@ -1932,231 +1918,6 @@
         <charset val="128"/>
       </rPr>
       <t>？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>较</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>已</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>完成。\n比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>较结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>果Excel被保存在工作文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中，★密</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未被</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>定★。\n根据你的安全需要，你可以通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用程序左下方的按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>除工作文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中的比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>较结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>果Excel文件。</t>
     </r>
   </si>
   <si>
@@ -3173,6 +2934,246 @@
   </si>
   <si>
     <t>Working directory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</t>
+    <rPh sb="78" eb="80">
+      <t>ミギシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>完成。\n比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果Excel被保存在工作文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中，★密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定★。\n根据你的安全需要，你可以通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用程序右下方的按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>除工作文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中的比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果Excel文件。</t>
+    </r>
+    <rPh sb="58" eb="59">
+      <t>ミギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3599,22 +3600,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="12.75">
@@ -3625,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -3651,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G34" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
@@ -3703,10 +3704,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3729,10 +3730,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3755,10 +3756,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3781,10 +3782,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3807,10 +3808,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3833,10 +3834,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3859,10 +3860,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3885,10 +3886,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3911,10 +3912,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3937,10 +3938,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3963,10 +3964,10 @@
         <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3989,10 +3990,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4015,10 +4016,10 @@
         <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4041,10 +4042,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4067,10 +4068,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4093,10 +4094,10 @@
         <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4119,10 +4120,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4145,10 +4146,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4171,10 +4172,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4197,10 +4198,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4223,10 +4224,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4263,10 +4264,10 @@
         <v>73</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4286,39 +4287,39 @@
         <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ左下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory by YOURSELF from the button in the lower left corner of the application.</v>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序左下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4335,16 +4336,16 @@
     </row>
     <row r="30" spans="2:9" ht="12.75">
       <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4361,16 +4362,16 @@
     </row>
     <row r="31" spans="2:9" ht="12.75">
       <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4393,10 +4394,10 @@
         <v>49</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4419,10 +4420,10 @@
         <v>51</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4445,10 +4446,10 @@
         <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4471,10 +4472,10 @@
         <v>55</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" ref="G35:G84" si="4" xml:space="preserve"> IF($B35="", "", $B35 &amp; "=" &amp; C35)</f>
@@ -4497,10 +4498,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4575,10 +4576,10 @@
         <v>63</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4601,10 +4602,10 @@
         <v>65</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4627,10 +4628,10 @@
         <v>67</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4653,10 +4654,10 @@
         <v>69</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4679,10 +4680,10 @@
         <v>71</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4713,16 +4714,16 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4739,16 +4740,16 @@
     </row>
     <row r="46" spans="2:9" ht="12.75">
       <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4765,16 +4766,16 @@
     </row>
     <row r="47" spans="2:9" ht="12.75">
       <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4791,16 +4792,16 @@
     </row>
     <row r="48" spans="2:9" ht="12.75">
       <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4817,16 +4818,16 @@
     </row>
     <row r="49" spans="2:9" ht="12.75">
       <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4843,16 +4844,16 @@
     </row>
     <row r="50" spans="2:9" ht="12.75">
       <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4869,16 +4870,16 @@
     </row>
     <row r="51" spans="2:9" ht="12.75">
       <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4895,16 +4896,16 @@
     </row>
     <row r="52" spans="2:9" ht="12.75">
       <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4921,16 +4922,16 @@
     </row>
     <row r="53" spans="2:9" ht="12.75">
       <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4947,16 +4948,16 @@
     </row>
     <row r="54" spans="2:9" ht="12.75">
       <c r="B54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4973,16 +4974,16 @@
     </row>
     <row r="55" spans="2:9" ht="12.75">
       <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4999,16 +5000,16 @@
     </row>
     <row r="56" spans="2:9" ht="12.75">
       <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5025,16 +5026,16 @@
     </row>
     <row r="57" spans="2:9" ht="12.75">
       <c r="B57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5051,16 +5052,16 @@
     </row>
     <row r="58" spans="2:9" ht="12.75">
       <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5077,16 +5078,16 @@
     </row>
     <row r="59" spans="2:9" ht="12.75">
       <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5103,16 +5104,16 @@
     </row>
     <row r="60" spans="2:9" ht="12.75">
       <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5129,16 +5130,16 @@
     </row>
     <row r="61" spans="2:9" ht="12.75">
       <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5155,16 +5156,16 @@
     </row>
     <row r="62" spans="2:9" ht="12.75">
       <c r="B62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5181,16 +5182,16 @@
     </row>
     <row r="63" spans="2:9" ht="12.75">
       <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D63" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5207,16 +5208,16 @@
     </row>
     <row r="64" spans="2:9" ht="12.75">
       <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5247,16 +5248,16 @@
     </row>
     <row r="66" spans="2:9" ht="12.75">
       <c r="B66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5273,16 +5274,16 @@
     </row>
     <row r="67" spans="2:9" ht="12.75">
       <c r="B67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5299,16 +5300,16 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5325,16 +5326,16 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5351,16 +5352,16 @@
     </row>
     <row r="70" spans="2:9" ht="12.75">
       <c r="B70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D70" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5377,16 +5378,16 @@
     </row>
     <row r="71" spans="2:9" ht="12.75">
       <c r="B71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D71" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5403,16 +5404,16 @@
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D72" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5429,16 +5430,16 @@
     </row>
     <row r="73" spans="2:9" ht="12.75">
       <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5455,16 +5456,16 @@
     </row>
     <row r="74" spans="2:9" ht="12.75">
       <c r="B74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5481,16 +5482,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5507,16 +5508,16 @@
     </row>
     <row r="76" spans="2:9" ht="12.75">
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5533,16 +5534,16 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D77" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5559,16 +5560,16 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="D78" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5585,16 +5586,16 @@
     </row>
     <row r="79" spans="2:9" ht="12.75">
       <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D79" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5611,16 +5612,16 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D80" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5637,16 +5638,16 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D81" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5663,16 +5664,16 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5689,16 +5690,16 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D83" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5715,16 +5716,16 @@
     </row>
     <row r="84" spans="2:9" ht="12.75">
       <c r="B84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D84" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="4"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306/hogandiff3/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25B7E2E-27CE-4F00-8F7E-2FFB1AB52B51}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ACE2E4-EE57-403D-90B9-4E49E4437C60}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="386">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -632,9 +632,6 @@
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工作簿路径 :</t>
   </si>
   <si>
     <t>打开</t>
@@ -712,18 +709,12 @@
     <t>子フォルダも含める</t>
   </si>
   <si>
-    <t>フォルダ：</t>
-  </si>
-  <si>
     <t>同じフォルダ同士／ブック同士／シート同士を比較することはできません。</t>
   </si>
   <si>
     <t>gui.component.MenuPane.010</t>
   </si>
   <si>
-    <t>現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</t>
-  </si>
-  <si>
     <t>gui.component.SettingsPane2.010</t>
   </si>
   <si>
@@ -909,10 +900,6 @@
   </si>
   <si>
     <t>Sheet Name :</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Folder :</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1390,21 +1377,6 @@
       </rPr>
       <t>删除...</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>夹 :</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2056,6 +2028,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">フォルダ%s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder %s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant rows on sheet %s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant columns on sheet %s : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Diff cells : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工作表%s的冗余行 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工作表%s的冗余列 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>差异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">单元格 : </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダパス：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作簿路径 :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>夹路径 :</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Folder Path :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is not supported in the current version.\nStay tuned for future versions!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>当前版本不支持此功能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n请继续关注未来版本！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>文件夹</t>
     </r>
@@ -2063,54 +2128,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF00B050"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">%s : </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">フォルダ%s : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Folder %s : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundant rows on sheet %s : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundant columns on sheet %s : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Diff cells : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">工作表%s的冗余行 : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">工作表%s的冗余列 : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>差异</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">单元格 : </t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2258,6 +2279,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2555,13 +2584,13 @@
         <v>198</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2575,7 +2604,7 @@
         <v>135</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2621,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2647,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2670,16 +2699,16 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2696,16 +2725,16 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2731,7 +2760,7 @@
         <v>151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2757,7 +2786,7 @@
         <v>152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2783,7 +2812,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2809,7 +2838,7 @@
         <v>137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2835,7 +2864,7 @@
         <v>138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2861,7 +2890,7 @@
         <v>139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2887,7 +2916,7 @@
         <v>140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2913,7 +2942,7 @@
         <v>141</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2939,7 +2968,7 @@
         <v>142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2965,7 +2994,7 @@
         <v>143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2991,7 +3020,7 @@
         <v>144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3017,7 +3046,7 @@
         <v>145</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3043,7 +3072,7 @@
         <v>146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3069,7 +3098,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3092,10 +3121,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3121,7 +3150,7 @@
         <v>148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3147,7 +3176,7 @@
         <v>149</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3173,7 +3202,7 @@
         <v>150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3199,7 +3228,7 @@
         <v>134</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3222,10 +3251,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3242,28 +3271,28 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>284</v>
+        <v>381</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.030=フォルダ：</v>
+        <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.030=Folder :</v>
+        <v>fx.TargetSelectionPane.030=Folder Path :</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.030=文件夹 :</v>
+        <v>fx.TargetSelectionPane.030=文件夹路径 :</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -3285,13 +3314,13 @@
         <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3311,13 +3340,13 @@
         <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3369,7 +3398,7 @@
         <v>163</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3395,7 +3424,7 @@
         <v>164</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3437,7 +3466,7 @@
         <v>153</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3454,10 +3483,16 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>223</v>
+        <v>382</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3465,16 +3500,16 @@
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>60</v>
@@ -3483,7 +3518,7 @@
         <v>158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3509,7 +3544,7 @@
         <v>159</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3535,7 +3570,7 @@
         <v>160</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3561,7 +3596,7 @@
         <v>161</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3578,7 +3613,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>56</v>
@@ -3604,7 +3639,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>57</v>
@@ -3630,16 +3665,16 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3659,13 +3694,13 @@
         <v>48</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3691,7 +3726,7 @@
         <v>156</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3717,7 +3752,7 @@
         <v>157</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3743,7 +3778,7 @@
         <v>154</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3760,7 +3795,7 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>51</v>
@@ -3769,7 +3804,7 @@
         <v>155</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3835,7 +3870,7 @@
         <v>166</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3868,7 +3903,7 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>80</v>
@@ -3877,7 +3912,7 @@
         <v>167</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3894,7 +3929,7 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>81</v>
@@ -3903,7 +3938,7 @@
         <v>168</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3920,7 +3955,7 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>86</v>
@@ -3929,7 +3964,7 @@
         <v>173</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3946,7 +3981,7 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>87</v>
@@ -3955,7 +3990,7 @@
         <v>174</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3972,7 +4007,7 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>88</v>
@@ -3981,7 +4016,7 @@
         <v>175</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3998,7 +4033,7 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>89</v>
@@ -4007,7 +4042,7 @@
         <v>176</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4024,7 +4059,7 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>90</v>
@@ -4033,7 +4068,7 @@
         <v>177</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4050,7 +4085,7 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>91</v>
@@ -4059,7 +4094,7 @@
         <v>178</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4076,7 +4111,7 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>92</v>
@@ -4085,7 +4120,7 @@
         <v>179</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4102,7 +4137,7 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>93</v>
@@ -4111,7 +4146,7 @@
         <v>180</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4128,7 +4163,7 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>94</v>
@@ -4137,7 +4172,7 @@
         <v>181</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4154,7 +4189,7 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>95</v>
@@ -4163,7 +4198,7 @@
         <v>182</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4196,16 +4231,16 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" ref="G67:G116" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
@@ -4222,7 +4257,7 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>82</v>
@@ -4231,7 +4266,7 @@
         <v>169</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4248,7 +4283,7 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>83</v>
@@ -4257,7 +4292,7 @@
         <v>170</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4274,7 +4309,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>84</v>
@@ -4283,7 +4318,7 @@
         <v>171</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4300,7 +4335,7 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>85</v>
@@ -4309,7 +4344,7 @@
         <v>172</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4342,16 +4377,16 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4368,16 +4403,16 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4394,16 +4429,16 @@
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4420,16 +4455,16 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4446,16 +4481,16 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4472,16 +4507,16 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4498,16 +4533,16 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4524,16 +4559,16 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4566,16 +4601,16 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4592,7 +4627,7 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>84</v>
@@ -4601,7 +4636,7 @@
         <v>171</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4618,7 +4653,7 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>85</v>
@@ -4627,7 +4662,7 @@
         <v>172</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4669,7 +4704,7 @@
         <v>183</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4695,7 +4730,7 @@
         <v>184</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4715,13 +4750,13 @@
         <v>100</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4741,13 +4776,13 @@
         <v>101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4767,13 +4802,13 @@
         <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4790,7 +4825,7 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>102</v>
@@ -4799,7 +4834,7 @@
         <v>185</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4816,7 +4851,7 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>104</v>
@@ -4825,7 +4860,7 @@
         <v>186</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4865,7 +4900,7 @@
         <v>187</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4896,7 +4931,7 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>97</v>
@@ -4905,7 +4940,7 @@
         <v>183</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4922,16 +4957,16 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4948,7 +4983,7 @@
     </row>
     <row r="98" spans="2:9">
       <c r="B98" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>102</v>
@@ -4957,7 +4992,7 @@
         <v>185</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4974,7 +5009,7 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>104</v>
@@ -4983,7 +5018,7 @@
         <v>186</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5000,16 +5035,16 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5026,7 +5061,7 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>99</v>
@@ -5035,7 +5070,7 @@
         <v>184</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5075,7 +5110,7 @@
         <v>188</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5101,7 +5136,7 @@
         <v>189</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5127,7 +5162,7 @@
         <v>190</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5153,7 +5188,7 @@
         <v>191</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5195,7 +5230,7 @@
         <v>184</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5221,7 +5256,7 @@
         <v>192</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5247,7 +5282,7 @@
         <v>193</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5273,7 +5308,7 @@
         <v>194</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5296,10 +5331,10 @@
         <v>123</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5348,10 +5383,10 @@
         <v>127</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5400,10 +5435,10 @@
         <v>131</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" si="3"/>

--- a/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
+++ b/xyz.hotchpotch.hogandiff/messages.properties管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306/hogandiff3/xyz.hotchpotch.hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ACE2E4-EE57-403D-90B9-4E49E4437C60}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{F7ED70AD-13DB-4CC7-8692-F4011A158C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE82F647-CEC3-4095-8BB3-97AD596AD9D5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="390">
   <si>
     <t>fx.MenuPane.010</t>
   </si>
@@ -422,12 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">差分セル : </t>
-  </si>
-  <si>
-    <t>Compare Books</t>
-  </si>
-  <si>
-    <t>Compare Sheets</t>
   </si>
   <si>
     <t>Book Path :</t>
@@ -697,15 +691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブック同士</t>
-  </si>
-  <si>
-    <t>シート同士</t>
-  </si>
-  <si>
-    <t>フォルダ同士</t>
-  </si>
-  <si>
     <t>子フォルダも含める</t>
   </si>
   <si>
@@ -888,10 +873,6 @@
   </si>
   <si>
     <t>Please specify different folders/books/sheets.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Compare Folders</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1098,49 +1079,6 @@
       </rPr>
       <t>执行</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作簿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较工作表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>互相比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-      </rPr>
-      <t>较文件夹</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2133,6 +2071,61 @@
       </rPr>
       <t xml:space="preserve">%s : </t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fx.MenuPane.050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較対象：</t>
+    <rPh sb="0" eb="4">
+      <t>ヒカクタイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Books</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Folders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>互相比较</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作簿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件夹</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2286,6 +2279,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2552,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I116"/>
+  <dimension ref="B1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2575,22 +2572,22 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2601,10 +2598,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="str">
         <f xml:space="preserve"> IF($B2="", "", $B2 &amp; "=" &amp; C2)</f>
@@ -2633,15 +2630,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
+        <f t="shared" ref="G3:G67" si="0" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; C3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H66" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
+        <f t="shared" ref="H3:H67" si="1" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; D3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I66" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
+        <f t="shared" ref="I3:I67" si="2" xml:space="preserve"> IF($B3="", "", $B3 &amp; "=" &amp; E3)</f>
         <v>fx.LinkPane.010=website</v>
       </c>
     </row>
@@ -2650,25 +2647,25 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>383</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.MenuPane.010=ブック同士</v>
+        <v>fx.MenuPane.010=ブック</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.MenuPane.010=Compare Books</v>
+        <v>fx.MenuPane.010=Books</v>
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.MenuPane.010=互相比较工作簿</v>
+        <v>fx.MenuPane.010=工作簿</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2676,65 +2673,65 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>384</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.MenuPane.020=シート同士</v>
+        <v>fx.MenuPane.020=シート</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.MenuPane.020=Compare Sheets</v>
+        <v>fx.MenuPane.020=Sheets</v>
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.MenuPane.020=互相比较工作表</v>
+        <v>fx.MenuPane.020=工作表</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>385</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.MenuPane.030=フォルダ同士</v>
+        <v>fx.MenuPane.030=フォルダ</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.MenuPane.030=Compare Folders</v>
+        <v>fx.MenuPane.030=Folders</v>
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.MenuPane.030=互相比较文件夹</v>
+        <v>fx.MenuPane.030=文件夹</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2751,2704 +2748,2730 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>377</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.PasswordDialogPane.010=パスワード：</v>
+        <v>fx.MenuPane.050=比較対象：</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.PasswordDialogPane.010=password :</v>
+        <v>fx.MenuPane.050=Compare</v>
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.PasswordDialogPane.010=密码：</v>
+        <v>fx.MenuPane.050=互相比较</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.PasswordDialogPane.020=パスワードが異なります。</v>
+        <v>fx.PasswordDialogPane.010=パスワード：</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.PasswordDialogPane.020=incorrect password</v>
+        <v>fx.PasswordDialogPane.010=password :</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.PasswordDialogPane.020=密码不正确。</v>
+        <v>fx.PasswordDialogPane.010=密码：</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.010=比較オプション</v>
+        <v>fx.PasswordDialogPane.020=パスワードが異なります。</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.010=Comparison options</v>
+        <v>fx.PasswordDialogPane.020=incorrect password</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.010=比较选项</v>
+        <v>fx.PasswordDialogPane.020=密码不正确。</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.compare.010=行の挿入／削除を考慮する</v>
+        <v>fx.SettingsPane1.010=比較オプション</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.010=consider row insertions/deletions</v>
+        <v>fx.SettingsPane1.010=Comparison options</v>
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.compare.010=考虑行的插入／删除</v>
+        <v>fx.SettingsPane1.010=比较选项</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.compare.020=列の挿入／削除を考慮する</v>
+        <v>fx.SettingsPane1.compare.010=行の挿入／削除を考慮する</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.020=consider column insertions/deletions</v>
+        <v>fx.SettingsPane1.compare.010=consider row insertions/deletions</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.compare.020=考虑列的插入／删除</v>
+        <v>fx.SettingsPane1.compare.010=考虑行的插入／删除</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.compare.030=値を比較する</v>
+        <v>fx.SettingsPane1.compare.020=列の挿入／削除を考慮する</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.030=compare values</v>
+        <v>fx.SettingsPane1.compare.020=consider column insertions/deletions</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.compare.030=比较值</v>
+        <v>fx.SettingsPane1.compare.020=考虑列的插入／删除</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.compare.040=数式を比較する</v>
+        <v>fx.SettingsPane1.compare.030=値を比較する</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.compare.040=compare formulas</v>
+        <v>fx.SettingsPane1.compare.030=compare values</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.compare.040=比较公式</v>
+        <v>fx.SettingsPane1.compare.030=比较值</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.020=レポートオプション</v>
+        <v>fx.SettingsPane1.compare.040=数式を比較する</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.020=Reporting options</v>
+        <v>fx.SettingsPane1.compare.040=compare formulas</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.020=报告选项</v>
+        <v>fx.SettingsPane1.compare.040=比较公式</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.010=差分セルに色を付けて表示する</v>
+        <v>fx.SettingsPane1.020=レポートオプション</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.010=display diff cells with color</v>
+        <v>fx.SettingsPane1.020=Reporting options</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.010=给不同的单元格着色</v>
+        <v>fx.SettingsPane1.020=报告选项</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.report.020=比較結果のテキストを表示する</v>
+        <v>fx.SettingsPane1.report.010=差分セルに色を付けて表示する</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.report.020=display result in text</v>
+        <v>fx.SettingsPane1.report.010=display diff cells with color</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.report.020=显示比较结果的文本</v>
+        <v>fx.SettingsPane1.report.010=给不同的单元格着色</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.030=実行オプション</v>
+        <v>fx.SettingsPane1.report.020=比較結果のテキストを表示する</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.030=Execution options</v>
+        <v>fx.SettingsPane1.report.020=display result in text</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.030=执行选项</v>
+        <v>fx.SettingsPane1.report.020=显示比较结果的文本</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
+        <v>fx.SettingsPane1.030=実行オプション</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.010=exit this app upon completion</v>
+        <v>fx.SettingsPane1.030=Execution options</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
+        <v>fx.SettingsPane1.030=执行选项</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane1.execute.020=省メモリモード</v>
+        <v>fx.SettingsPane1.execute.010=比較完了時にこのアプリを終了する</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane1.execute.020=memory-saving mode</v>
+        <v>fx.SettingsPane1.execute.010=exit this app upon completion</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane1.execute.020=内存节省模式</v>
+        <v>fx.SettingsPane1.execute.010=比较结束后自动退出此应用程序</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.010=言語</v>
+        <v>fx.SettingsPane1.execute.020=省メモリモード</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.010=Language</v>
+        <v>fx.SettingsPane1.execute.020=memory-saving mode</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.010=语言</v>
+        <v>fx.SettingsPane1.execute.020=内存节省模式</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
+        <v>fx.SettingsPane2.010=言語</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.020=Working directory</v>
+        <v>fx.SettingsPane2.010=Language</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.020=工作\n文件夹</v>
+        <v>fx.SettingsPane2.010=语言</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.010=開く</v>
+        <v>fx.SettingsPane2.020=作業用\nフォルダ</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.010=Open</v>
+        <v>fx.SettingsPane2.020=Working directory</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.010=打开</v>
+        <v>fx.SettingsPane2.020=工作\n文件夹</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.020=変更...</v>
+        <v>fx.SettingsPane2.workDir.010=開く</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.020=Change...</v>
+        <v>fx.SettingsPane2.workDir.010=Open</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.020=改变...</v>
+        <v>fx.SettingsPane2.workDir.010=打开</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.SettingsPane2.workDir.030=削除...</v>
+        <v>fx.SettingsPane2.workDir.020=変更...</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.SettingsPane2.workDir.030=Delete...</v>
+        <v>fx.SettingsPane2.workDir.020=Change...</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.SettingsPane2.workDir.030=删除...</v>
+        <v>fx.SettingsPane2.workDir.020=改变...</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.010=ブックパス：</v>
+        <v>fx.SettingsPane2.workDir.030=削除...</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.010=Book Path :</v>
+        <v>fx.SettingsPane2.workDir.030=Delete...</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.010=工作簿路径 :</v>
+        <v>fx.SettingsPane2.workDir.030=删除...</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fx.TargetSelectionPane.020=シート名：</v>
+        <v>fx.TargetSelectionPane.010=ブックパス：</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>fx.TargetSelectionPane.020=Sheet Name :</v>
+        <v>fx.TargetSelectionPane.010=Book Path :</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fx.TargetSelectionPane.020=工作表名称 :</v>
+        <v>fx.TargetSelectionPane.010=工作簿路径 :</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>fx.TargetSelectionPane.020=シート名：</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>fx.TargetSelectionPane.020=Sheet Name :</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fx.TargetSelectionPane.020=工作表名称 :</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>fx.TargetSelectionPane.030=フォルダパス：</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fx.TargetSelectionPane.030=Folder Path :</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>fx.TargetSelectionPane.030=文件夹路径 :</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="G29" s="4" t="str">
+    <row r="30" spans="2:9">
+      <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
-      </c>
-      <c r="I30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
+        <v>gui.MainController.010=同じフォルダ同士／ブック同士／シート同士を比較することはできません。</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
+        <v>gui.MainController.010=Please specify different folders/books/sheets.</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
+        <v>gui.MainController.010=指定非相同的文件夹／工作簿／工作表。</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
+        <v>gui.MainController.020=比較が完了しました。\n比較結果Excelは ★パスワードが解除された状態で★ 作業用フォルダに保存されています。\nセキュリティ上の必要性に応じて、アプリ右下のボタンから作業用フォルダ内の比較結果Excelファイルをご自身で削除してください。</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.MainController.030=Unexpected exception occurred.</v>
+        <v>gui.MainController.020=Comparison is completed.\nThe result book(s) is saved in working directory with the password UNLOCKED.\nDepending on your security needs, you can delete the result book(s) in the working directory YOURSELF via the button in the lower right corner of the application.</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.MainController.030=意外的例外。</v>
+        <v>gui.MainController.020=比较已经完成。\n比较结果Excel被保存在工作文件夹中，★密码未被锁定★。\n根据你的安全需要，你可以通过应用程序右下方的按钮自行删除工作文件夹中的比较结果Excel文件。</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.PasswordDialog.010=パスワード指定</v>
+        <v>gui.MainController.030=予期せぬ例外が発生しました。</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.PasswordDialog.010=Enter Password</v>
+        <v>gui.MainController.030=Unexpected exception occurred.</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.PasswordDialog.010=输入密码</v>
+        <v>gui.MainController.030=意外的例外。</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.PasswordDialog.010=パスワード指定</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gui.PasswordDialog.010=Enter Password</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.PasswordDialog.010=输入密码</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G34" s="4" t="str">
+      <c r="D35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.PasswordDialogPane.010=%s はパスワードで保護されています。</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.PasswordDialogPane.010=The book [%s] is password protected.</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.PasswordDialogPane.010=%s 是受密码保护的。</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="G35" s="4" t="str">
+    <row r="36" spans="2:9">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:9">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" s="4" t="str">
+      <c r="D37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.LinkPane.010=Webページの表示に失敗しました。ご利用のブラウザでお試しください。</v>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>gui.component.LinkPane.010=Failed to open the website. Please try using your browser.</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.LinkPane.010=网页未能显示。 请尝试使用你的浏览器。</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>215</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
+        <v>gui.component.MenuPane.010=現在のバージョンでは未対応です。\n将来のバージョンにご期待ください！</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
+        <v>gui.component.MenuPane.010=This is not supported in the current version.\nStay tuned for future versions!</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
+        <v>gui.component.MenuPane.010=当前版本不支持此功能。\n请继续关注未来版本！</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
+        <v>gui.component.SettingsPane2.010=作業用フォルダの表示に失敗しました。</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.020=Change working directory</v>
+        <v>gui.component.SettingsPane2.010=Failed to open working directory.</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
+        <v>gui.component.SettingsPane2.010=显示工作文件夹失败。</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
+        <v>gui.component.SettingsPane2.020=作業用フォルダの変更</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
+        <v>gui.component.SettingsPane2.020=Change working directory</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
+        <v>gui.component.SettingsPane2.020=改变工作文件夹</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
+        <v>gui.component.SettingsPane2.030=作業用フォルダの変更に失敗しました。</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
+        <v>gui.component.SettingsPane2.030=Failed to change working directory.</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
+        <v>gui.component.SettingsPane2.030=更改工作文件夹失败。</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="8" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=次のフォルダの内容物を全て削除します。よろしいですか？</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=Delete all contents of the following directory. Are you sure?</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
+        <v>gui.component.SettingsPane2.040=删除以下文件夹的所有内容。你确定吗？</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
+        <v>gui.component.SettingsPane2.051=表示言語の変更を保存しました。\nアプリケーションを再起動すると変更が反映されます。</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
+        <v>gui.component.SettingsPane2.052=Display language change is saved. \nRestart the application to reflect the change.</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
+        <v>gui.component.SettingsPane2.053=对显示语言的改变已经被保存。\n重新启动应用程序，这些变化就会生效。</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
+        <v>gui.component.TargetSelectionPane.010=比較対象フォルダの選択</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
+        <v>gui.component.TargetSelectionPane.010=Select comparison folder</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
+        <v>gui.component.TargetSelectionPane.010=选择用于比较的文件夹</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
+        <v>gui.component.TargetSelectionPane.020=比較対象ブックの選択</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>gui.component.TargetSelectionPane.030=Excel book</v>
+        <v>gui.component.TargetSelectionPane.020=Select comparison book</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
+        <v>gui.component.TargetSelectionPane.020=选择用于比较的工作簿</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel ブック</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+        <v>gui.component.TargetSelectionPane.030=Excel book</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+        <v>gui.component.TargetSelectionPane.030=Excel工作簿</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="8" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>gui.component.TargetSelectionPane.040=ファイルを読み込めません：</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">gui.component.TargetSelectionPane.040=Failed to open file : </v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gui.component.TargetSelectionPane.040=无法读取文件：</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="4" t="str">
+      <c r="D50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gui.component.TargetSelectionPane.050=シートが見つかりません：</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gui.component.TargetSelectionPane.050=No such sheet : </v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I50" s="6" t="str">
         <f t="shared" si="2"/>
         <v>gui.component.TargetSelectionPane.050=没有找到工作表：</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="G50" s="4" t="str">
+    <row r="51" spans="2:9">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I51" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppMain.010=方眼Diff</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppMain.010=HoganDiff (方眼Diff)</v>
-      </c>
-      <c r="I51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppMain.010=方眼Diff</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppMain.010=HoganDiff (方眼Diff)</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppMain.010=方眼Diff</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G52" s="4" t="str">
+      <c r="D53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppResource.010=設定の保存に失敗しました。</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppResource.010=Failed to save settings.</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I53" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppResource.010=保存设置失败。</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="G53" s="4" t="str">
+    <row r="54" spans="2:9">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I54" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="G54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>AppTaskBase.010=Creating working directory...</v>
-      </c>
-      <c r="I54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>330</v>
+        <v>165</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
+        <v>AppTaskBase.010=作業用フォルダを作成しています...</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.020=Failed to create working directory.</v>
+        <v>AppTaskBase.010=Creating working directory...</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.020=创建工作文件夹失败。</v>
+        <v>AppTaskBase.010=创建工作文件夹...</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
+        <v>AppTaskBase.020=作業用フォルダの作成に失敗しました。</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.030=Saving result text...</v>
+        <v>AppTaskBase.020=Failed to create working directory.</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.030=存储比较结果文本...</v>
+        <v>AppTaskBase.020=创建工作文件夹失败。</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
+        <v>AppTaskBase.030=比較結果テキストを保存しています...</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.040=Opening result text...</v>
+        <v>AppTaskBase.030=Saving result text...</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.040=显示比较结果文本...</v>
+        <v>AppTaskBase.030=存储比较结果文本...</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
+        <v>AppTaskBase.040=比較結果テキストを表示しています...</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.050=Failed to save or open result text.</v>
+        <v>AppTaskBase.040=Opening result text...</v>
       </c>
       <c r="I58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
+        <v>AppTaskBase.040=显示比较结果文本...</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
+        <v>AppTaskBase.050=比較結果テキストの保存と表示に失敗しました。</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
+        <v>AppTaskBase.050=Failed to save or open result text.</v>
       </c>
       <c r="I59" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.060=着色和存储在工作簿...</v>
+        <v>AppTaskBase.050=保存和显示比较结果文本失败。</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.060=Excelブックに比較結果の色を付けて保存しています...</v>
       </c>
       <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
+        <v>AppTaskBase.060=Painting and saving result book(s)...</v>
       </c>
       <c r="I60" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
+        <v>AppTaskBase.060=着色和存储在工作簿...</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
+        <v>AppTaskBase.070=Excelブックの着色・保存に失敗しました。</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.080=Opening result book(s)...</v>
+        <v>AppTaskBase.070=Failed to paint or save result book(s).</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
+        <v>AppTaskBase.070=着色和保存工作簿失败。</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
+        <v>AppTaskBase.080=比較結果のExcelブックを表示しています...</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.090=Failed to open result book(s).</v>
+        <v>AppTaskBase.080=Opening result book(s)...</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.090=显示工作簿失败。</v>
+        <v>AppTaskBase.080=显示比较结果的工作簿...</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.090=Excelブックの表示に失敗しました。</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
+        <v>AppTaskBase.090=Failed to open result book(s).</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
+        <v>AppTaskBase.090=显示工作簿失败。</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+        <v>AppTaskBase.100=ExcelブックAの着色・保存に失敗しました。</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+        <v>AppTaskBase.100=Failed to paint or save result book A.</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+        <v>AppTaskBase.100=工作簿A的着色和保存失败。</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AppTaskBase.110=ExcelブックBの着色・保存に失敗しました。</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AppTaskBase.110=Failed to paint or save result book B.</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>AppTaskBase.110=工作簿B的着色和保存失败。</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G65" s="4" t="str">
+      <c r="D66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AppTaskBase.120=処理が完了しました。</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>AppTaskBase.120=Process completed.</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I66" s="6" t="str">
         <f t="shared" si="2"/>
         <v>AppTaskBase.120=过程完成。</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="G66" s="4" t="str">
+    <row r="67" spans="2:9">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H67" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I67" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G116" si="3" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; C67)</f>
-        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" ref="H67:H116" si="4" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; D67)</f>
-        <v>CompareBooksTask.010=Starting comparing books.</v>
-      </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" ref="I67:I116" si="5" xml:space="preserve"> IF($B67="", "", $B67 &amp; "=" &amp; E67)</f>
-        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ref="G68:G117" si="3" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; C68)</f>
+        <v>CompareBooksTask.010=ブック同士の比較を開始します。</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" ref="H68:H117" si="4" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; D68)</f>
+        <v>CompareBooksTask.010=Starting comparing books.</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" ref="I68:I117" si="5" xml:space="preserve"> IF($B68="", "", $B68 &amp; "=" &amp; E68)</f>
+        <v>CompareBooksTask.010=开始互相比较工作簿。</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G68" s="4" t="str">
+      <c r="D69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G69" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.020=比較するシートの組み合わせを決定しています...</v>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H69" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.020=Pairing sheets...</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I69" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.020=确定要比较的工作表的组合 ...</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    <row r="70" spans="2:9">
+      <c r="B70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G69" s="4" t="str">
+      <c r="D70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G70" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.030=シートの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H70" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.030=Failed to pair sheets.</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I70" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.030=确定工作表组合失败。</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    <row r="71" spans="2:9">
+      <c r="B71" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G70" s="4" t="str">
+      <c r="D71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G71" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.040=シートを比較しています...</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.040=Comparing sheets...</v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I71" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.040=比较工作表...</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    <row r="72" spans="2:9">
+      <c r="B72" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G71" s="4" t="str">
+      <c r="D72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareBooksTask.050=シートの比較に失敗しました。</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareBooksTask.050=Failed to compare sheets.</v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I72" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareBooksTask.050=工作表比较失败。</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="G72" s="4" t="str">
+    <row r="73" spans="2:9">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="G73" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H73" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I72" s="6" t="str">
+      <c r="I73" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G73" s="4" t="str">
+    <row r="74" spans="2:9">
+      <c r="B74" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G74" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.010=フォルダ同士の比較を開始します。</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.010=Starting comparing folders.</v>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="I74" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.010=开始互相比较文件夹。</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G74" s="4" t="str">
+    <row r="75" spans="2:9">
+      <c r="B75" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G75" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.020=出力フォルダの作成に失敗しました。</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.020=Failed to create output directory.</v>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="I75" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.020=创建输出目的地文件夹失败。</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G75" s="4" t="str">
+    <row r="76" spans="2:9">
+      <c r="B76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.030=比較するExcelブックの組み合わせを決定しています...</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.030=Pairing books...</v>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I76" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.030=确定要比较的工作簿的组合 ...</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G76" s="4" t="str">
+    <row r="77" spans="2:9">
+      <c r="B77" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G77" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.040=Excelブックの組み合わせ決定に失敗しました。</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.040=Failed to pair books.</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I77" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.040=确定工作簿组合失败。</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G77" s="4" t="str">
+    <row r="78" spans="2:9">
+      <c r="B78" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.050=Excelブックを比較しています...</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.050=Comparing books...</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I78" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.050=比较工作簿...</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G78" s="4" t="str">
+    <row r="79" spans="2:9">
+      <c r="B79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G79" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.060=★失敗しました</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.060=★Failed</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I79" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.060=★失败</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="G79" s="4" t="str">
+    <row r="80" spans="2:9">
+      <c r="B80" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G80" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.070=比較結果フォルダを表示しています...</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.070=Opening result folder...</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I80" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.070=显示比较结果文件夹...</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G80" s="4" t="str">
+    <row r="81" spans="2:9">
+      <c r="B81" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareDirsTask.080=比較結果フォルダの表示に失敗しました。</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareDirsTask.080=Failed to open result folder(s).</v>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I81" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareDirsTask.080=显示文件夹失败。</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="G81" s="4" t="str">
+    <row r="82" spans="2:9">
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="G82" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H82" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I82" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="3" t="s">
+    <row r="83" spans="2:9">
+      <c r="B83" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G82" s="4" t="str">
+      <c r="D83" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.010=シート同士の比較を開始します。</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.010=Starting comparing sheets.</v>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I83" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.010=开始相互比较工作表。</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    <row r="84" spans="2:9">
+      <c r="B84" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G83" s="4" t="str">
+      <c r="D84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.020=シートを比較しています...</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.020=Comparing sheets...</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I84" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.020=比较工作表...</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="3" t="s">
+    <row r="85" spans="2:9">
+      <c r="B85" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G84" s="4" t="str">
+      <c r="D85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G85" s="4" t="str">
         <f t="shared" si="3"/>
         <v>CompareSheetsTask.030=シートの比較に失敗しました。</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>CompareSheetsTask.030=Failed to compare sheets.</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I85" s="6" t="str">
         <f t="shared" si="5"/>
         <v>CompareSheetsTask.030=工作表比较失败。</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="G85" s="4" t="str">
+    <row r="86" spans="2:9">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="G86" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H86" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I86" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="2" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G86" s="4" t="str">
+      <c r="D87" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.010=(比較相手なし)</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.010=(no opponent)</v>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I87" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G87" s="4" t="str">
+      <c r="D88" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.020=(差分なし)</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.020=(no diffs)</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I88" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.020=(没有区别)</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="8" t="s">
+    <row r="89" spans="2:9">
+      <c r="B89" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G88" s="4" t="str">
+      <c r="C89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G89" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.030=差異発生%dシート</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.030=diff sheets:%d</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I89" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.030=差异工作表%d</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="8" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G89" s="4" t="str">
+      <c r="C90" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G90" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.040=余剰%dシート</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.040=redundant sheets:%d</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I90" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.040=冗余工作表%d</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="8" t="s">
+    <row r="91" spans="2:9">
+      <c r="B91" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G90" s="4" t="str">
+      <c r="C91" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.BResult.050=ブック%s : </v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H91" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.BResult.050=Book %s : </v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I91" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.BResult.050=工作簿%s : </v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" s="3" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G91" s="4" t="str">
+      <c r="D92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.060=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.060=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I92" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.060=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C92" s="3" t="s">
+    <row r="93" spans="2:9">
+      <c r="B93" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G92" s="4" t="str">
+      <c r="D93" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G93" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.BResult.070=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.BResult.070=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I93" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.BResult.070=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="G93" s="4" t="str">
+    <row r="94" spans="2:9">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H94" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I94" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="2" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G94" s="4" t="str">
+      <c r="D95" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G95" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.CellHashData.010=（省メモリモードではセル内容を表示できません）</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.CellHashData.010=(Cell contents cannot be displayed in memory-saving mode)</v>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I95" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.CellHashData.010=（在节省内存模式下，不能显示单元格内容）</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="G95" s="4" t="str">
+    <row r="96" spans="2:9">
+      <c r="G96" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H96" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I96" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="3" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G96" s="4" t="str">
+      <c r="D97" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.010=(比較相手なし)</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.010=(no opponent)</v>
       </c>
-      <c r="I96" s="6" t="str">
+      <c r="I97" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.010=(没有对比)</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G97" s="4" t="str">
+    <row r="98" spans="2:9">
+      <c r="B98" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.DResult.020=フォルダ%s : </v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H98" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.DResult.020=Folder %s : </v>
       </c>
-      <c r="I97" s="6" t="str">
+      <c r="I98" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.DResult.020=文件夹%s : </v>
       </c>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C98" s="3" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G98" s="4" t="str">
+      <c r="D99" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.030=■差分サマリ ---------------------------------------------------</v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.030=## SUMMARY -----------------------------------------------------</v>
       </c>
-      <c r="I98" s="6" t="str">
+      <c r="I99" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.030=■差异摘要 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C99" s="3" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G99" s="4" t="str">
+      <c r="D100" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G100" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.040=■差分詳細 -----------------------------------------------------</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.040=## DETAIL ------------------------------------------------------</v>
       </c>
-      <c r="I99" s="6" t="str">
+      <c r="I100" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.040=■差异细节 -----------------------------------------------------</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G100" s="4" t="str">
+    <row r="101" spans="2:9">
+      <c r="B101" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G101" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.050=★失敗しました</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.050=★Failed</v>
       </c>
-      <c r="I100" s="6" t="str">
+      <c r="I101" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.050=★失败</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C101" s="3" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G101" s="4" t="str">
+      <c r="D102" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G102" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.DResult.060=(差分なし)</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="H102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.DResult.060=(no diffs)</v>
       </c>
-      <c r="I101" s="6" t="str">
+      <c r="I102" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.DResult.060=(没有区别)</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="G102" s="4" t="str">
+    <row r="103" spans="2:9">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I102" s="6" t="str">
+      <c r="I103" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="2" t="s">
+    <row r="104" spans="2:9">
+      <c r="B104" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G103" s="4" t="str">
+      <c r="D104" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G104" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.010=ワークシート</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.010=Worksheet</v>
       </c>
-      <c r="I103" s="6" t="str">
+      <c r="I104" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.010=工作表</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="2" t="s">
+    <row r="105" spans="2:9">
+      <c r="B105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G104" s="4" t="str">
+      <c r="D105" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G105" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.020=グラフシート</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="H105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.020=Chart</v>
       </c>
-      <c r="I104" s="6" t="str">
+      <c r="I105" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.020=图表表</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="2" t="s">
+    <row r="106" spans="2:9">
+      <c r="B106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G105" s="4" t="str">
+      <c r="D106" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G106" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.030=MS Excel 5.0 ダイアログシート</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="H106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.030=MS Excel 5.0 Dialog</v>
       </c>
-      <c r="I105" s="6" t="str">
+      <c r="I106" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.030=MS Excel 5.0 对话表</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="2" t="s">
+    <row r="107" spans="2:9">
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G106" s="4" t="str">
+      <c r="D107" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G107" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SheetType.040=Excel 4.0 マクロシート</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SheetType.040=Excel 4.0 Macro</v>
       </c>
-      <c r="I106" s="6" t="str">
+      <c r="I107" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SheetType.040=Excel 4.0 宏表</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="G107" s="4" t="str">
+    <row r="108" spans="2:9">
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="G108" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H108" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I107" s="6" t="str">
+      <c r="I108" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="2" t="s">
+    <row r="109" spans="2:9">
+      <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G108" s="4" t="str">
+      <c r="D109" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G109" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.010=(差分なし)</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="H109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.010=(no diffs)</v>
       </c>
-      <c r="I108" s="6" t="str">
+      <c r="I109" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.010=(没有区别)</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="2" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G109" s="4" t="str">
+      <c r="D110" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.020=余剰行%d</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.020=redundant rows:%d</v>
       </c>
-      <c r="I109" s="6" t="str">
+      <c r="I110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.020=冗余行%d</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G110" s="4" t="str">
+      <c r="D111" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G111" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.030=余剰列%d</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="H111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.030=redundant columns:%d</v>
       </c>
-      <c r="I110" s="6" t="str">
+      <c r="I111" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.030=冗余列%d</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="2" t="s">
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G111" s="4" t="str">
+      <c r="D112" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G112" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.040=差分セル%d</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.040=diff cells:%d</v>
       </c>
-      <c r="I111" s="6" t="str">
+      <c r="I112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.040=差异单元格%d</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="2" t="s">
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G112" s="4" t="str">
+      <c r="D113" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G113" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.SResult.050=シート%s上の余剰行 : </v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H113" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.SResult.050=Redundant rows on sheet %s : </v>
       </c>
-      <c r="I112" s="6" t="str">
+      <c r="I113" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.SResult.050=工作表%s的冗余行 : </v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="2" t="s">
+    <row r="114" spans="2:9">
+      <c r="B114" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E113" s="7" t="s">
+      <c r="D114" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="G114" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.060=行%d</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="H114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.060=Row %d</v>
       </c>
-      <c r="I113" s="6" t="str">
+      <c r="I114" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.060=行%d</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="2" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G114" s="4" t="str">
+      <c r="D115" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G115" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.SResult.070=シート%s上の余剰列 : </v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="H115" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.SResult.070=Redundant columns on sheet %s : </v>
       </c>
-      <c r="I114" s="6" t="str">
+      <c r="I115" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.SResult.070=工作表%s的冗余列 : </v>
       </c>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="2" t="s">
+    <row r="116" spans="2:9">
+      <c r="B116" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E115" s="7" t="s">
+      <c r="D116" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="G116" s="4" t="str">
         <f t="shared" si="3"/>
         <v>excel.SResult.080=%s列</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="H116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>excel.SResult.080=Column %s</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I116" s="6" t="str">
         <f t="shared" si="5"/>
         <v>excel.SResult.080=%s列</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="2" t="s">
+    <row r="117" spans="2:9">
+      <c r="B117" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G116" s="4" t="str">
+      <c r="D117" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G117" s="4" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">excel.SResult.090=差分セル : </v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="H117" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">excel.SResult.090=Diff cells : </v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I117" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">excel.SResult.090=差异单元格 : </v>
       </c>
